--- a/results/sfcc_CNN2DModel_3layers_maxpool_PCC.xlsx
+++ b/results/sfcc_CNN2DModel_3layers_maxpool_PCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B646B6-9A9C-4EB7-933B-BE840818D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE11CA8-6A62-437B-9138-3920D9FF939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
